--- a/results_with_cost_benefit.xlsx
+++ b/results_with_cost_benefit.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>CPU Usage (%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GPU Usage (%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Confusion Matrix</t>
         </is>
       </c>
@@ -489,12 +499,18 @@
         <v>0.9792849672919071</v>
       </c>
       <c r="F2" t="n">
-        <v>9.335177421569824</v>
+        <v>4.140716314315796</v>
       </c>
       <c r="G2" t="n">
-        <v>24.19921875</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>35.93359375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>[[7821    0]
  [   0 7967]]</t>
@@ -520,12 +536,18 @@
         <v>0.9682884862931982</v>
       </c>
       <c r="F3" t="n">
-        <v>187.2297306060791</v>
+        <v>247.6872451305389</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.28515625</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>55.99609375</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>[[7814    7]
  [ 461 7506]]</t>
@@ -539,24 +561,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9846718375124717</v>
+        <v>0.9839751539333988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9847486037277159</v>
+        <v>0.9840580373808102</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9806690289590991</v>
+        <v>0.9801673045276569</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9847089775747995</v>
+        <v>0.9840107083436317</v>
       </c>
       <c r="F4" t="n">
-        <v>1.677868604660034</v>
+        <v>1.791338443756104</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>2.53515625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>[[7821    0]
  [   0 7967]]</t>
@@ -570,27 +598,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9942362567635579</v>
+        <v>0.9940461828289712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9942675503001519</v>
+        <v>0.994080187770581</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9909629704356158</v>
+        <v>0.9908373422949124</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9942668147752516</v>
+        <v>0.9940759601500136</v>
       </c>
       <c r="F5" t="n">
-        <v>78.14910101890564</v>
+        <v>92.53224873542786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11328125</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[[7813    8]
- [   8 7959]]</t>
+        <v>-47.81640625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[[7816    5]
+ [  20 7947]]</t>
         </is>
       </c>
     </row>
@@ -601,27 +635,33 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9904993534436051</v>
+        <v>0.990309239375164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9905342659126413</v>
+        <v>0.9903418030378571</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9849384942277257</v>
+        <v>0.9846872379463187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.990551170204605</v>
+        <v>0.9903616851034929</v>
       </c>
       <c r="F6" t="n">
-        <v>67.09917116165161</v>
+        <v>46.45671772956848</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[[7814    7]
- [  71 7896]]</t>
+        <v>28.58203125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[[7813    8]
+ [  61 7906]]</t>
         </is>
       </c>
     </row>
@@ -632,27 +672,33 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9944263708319987</v>
+        <v>0.9942364172989755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9944567547912919</v>
+        <v>0.9942657302114067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9910890714551426</v>
+        <v>0.9903359331160193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9944575792058321</v>
+        <v>0.994272825893048</v>
       </c>
       <c r="F7" t="n">
-        <v>161.2111058235168</v>
+        <v>124.4697840213776</v>
       </c>
       <c r="G7" t="n">
-        <v>5.9453125</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[[7818    3]
- [   2 7965]]</t>
+        <v>-121.1171875</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[[7820    1]
+ [  16 7951]]</t>
         </is>
       </c>
     </row>
@@ -675,12 +721,18 @@
         <v>0.8865323361911823</v>
       </c>
       <c r="F8" t="n">
-        <v>4.712724924087524</v>
+        <v>4.12394380569458</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25390625</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>-16.515625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>[[6682 1139]
  [ 598 7369]]</t>
@@ -694,24 +746,30 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9910690936411118</v>
+        <v>0.9910688929718396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9911079742439126</v>
+        <v>0.9911043891869866</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9864436675220519</v>
+        <v>0.9861919383618216</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9911123492875763</v>
+        <v>0.991114361945313</v>
       </c>
       <c r="F9" t="n">
-        <v>21.38131642341614</v>
+        <v>22.56556081771851</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6640625</v>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>59.78125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>[[7821    0]
  [   0 7967]]</t>
@@ -737,12 +795,18 @@
         <v>0.9908665552773854</v>
       </c>
       <c r="F10" t="n">
-        <v>6.69023871421814</v>
+        <v>5.662493705749512</v>
       </c>
       <c r="G10" t="n">
-        <v>33.11328125</v>
-      </c>
-      <c r="H10" t="inlineStr">
+        <v>61.640625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>[[7819    2]
  [  15 7952]]</t>
@@ -768,12 +832,18 @@
         <v>0.9460520108317416</v>
       </c>
       <c r="F11" t="n">
-        <v>1.386712789535522</v>
+        <v>1.145050287246704</v>
       </c>
       <c r="G11" t="n">
-        <v>5.75390625</v>
-      </c>
-      <c r="H11" t="inlineStr">
+        <v>1.05859375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>[[7712  109]
  [ 709 7258]]</t>
